--- a/2016 Project Impact Tracking.xlsx
+++ b/2016 Project Impact Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\groupcommit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A512DC-BA24-4909-B32C-CF23A0E24808}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC58242-69BE-46B9-8A0A-02B93BCBF0F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="8832" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14811,7 +14811,7 @@
       </c>
       <c r="C5" s="113">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="109">
         <f>'[1]Year Summary Template'!$C5</f>
@@ -14819,7 +14819,7 @@
       </c>
       <c r="E5" s="105">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="49">
         <f>'STEM Mentors'!C5</f>
@@ -14843,7 +14843,7 @@
       </c>
       <c r="K5" s="49">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="49">
         <f t="shared" ca="1" si="4"/>
@@ -28125,7 +28125,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -28249,15 +28249,17 @@
       </c>
       <c r="C5" s="58">
         <f>SUM(D5:E5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="61">
         <v>1</v>
       </c>
-      <c r="E5" s="76"/>
+      <c r="E5" s="76">
+        <v>2</v>
+      </c>
       <c r="G5" s="58">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>92</v>
